--- a/Compensation Plan.xlsx
+++ b/Compensation Plan.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mydeen\Mcube_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17840" windowHeight="6440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DEC 2017</t>
   </si>
@@ -69,12 +69,15 @@
   </si>
   <si>
     <t>Miquel</t>
+  </si>
+  <si>
+    <t>3 (UI Designs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,9 +138,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -147,9 +147,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,121 +468,123 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Compensation Plan.xlsx
+++ b/Compensation Plan.xlsx
@@ -71,7 +71,7 @@
     <t>Miquel</t>
   </si>
   <si>
-    <t>3 (UI Designs)</t>
+    <t>4(UI Designs)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
